--- a/data/outputs/spending_summarised_age_group.xlsx
+++ b/data/outputs/spending_summarised_age_group.xlsx
@@ -488,13 +488,13 @@
         <v>44.8</v>
       </c>
       <c r="E2" t="n">
-        <v>103.81</v>
+        <v>103.85</v>
       </c>
       <c r="F2" t="n">
-        <v>66.44</v>
+        <v>66.47</v>
       </c>
       <c r="G2" t="n">
-        <v>123.51</v>
+        <v>123.61</v>
       </c>
     </row>
     <row r="3">
@@ -515,13 +515,13 @@
         <v>48.64</v>
       </c>
       <c r="E3" t="n">
-        <v>144.22</v>
+        <v>144.14</v>
       </c>
       <c r="F3" t="n">
-        <v>92.3</v>
+        <v>92.25</v>
       </c>
       <c r="G3" t="n">
-        <v>181.34</v>
+        <v>181.53</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>36.5</v>
       </c>
       <c r="E4" t="n">
-        <v>92.06999999999999</v>
+        <v>92.09</v>
       </c>
       <c r="F4" t="n">
-        <v>67.20999999999999</v>
+        <v>67.22</v>
       </c>
       <c r="G4" t="n">
-        <v>164.69</v>
+        <v>164.6</v>
       </c>
     </row>
     <row r="5">
@@ -569,13 +569,13 @@
         <v>41.61</v>
       </c>
       <c r="E5" t="n">
-        <v>259.56</v>
+        <v>259.9</v>
       </c>
       <c r="F5" t="n">
-        <v>189.48</v>
+        <v>189.73</v>
       </c>
       <c r="G5" t="n">
-        <v>143.76</v>
+        <v>143.62</v>
       </c>
     </row>
     <row r="6">
@@ -596,13 +596,13 @@
         <v>47.25</v>
       </c>
       <c r="E6" t="n">
-        <v>66.87</v>
+        <v>66.93000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>70.22</v>
+        <v>70.28</v>
       </c>
       <c r="G6" t="n">
-        <v>163.79</v>
+        <v>163.85</v>
       </c>
     </row>
     <row r="7">
@@ -623,13 +623,13 @@
         <v>42</v>
       </c>
       <c r="E7" t="n">
-        <v>74.95999999999999</v>
+        <v>74.98</v>
       </c>
       <c r="F7" t="n">
-        <v>78.70999999999999</v>
+        <v>78.73</v>
       </c>
       <c r="G7" t="n">
-        <v>131.24</v>
+        <v>131.27</v>
       </c>
     </row>
     <row r="8">
@@ -653,10 +653,10 @@
         <v>75.88</v>
       </c>
       <c r="F8" t="n">
-        <v>79.67</v>
+        <v>79.68000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>149.64</v>
+        <v>150.06</v>
       </c>
     </row>
     <row r="9">
@@ -677,13 +677,13 @@
         <v>52.5</v>
       </c>
       <c r="E9" t="n">
-        <v>85.15000000000001</v>
+        <v>85.12</v>
       </c>
       <c r="F9" t="n">
-        <v>89.40000000000001</v>
+        <v>89.38</v>
       </c>
       <c r="G9" t="n">
-        <v>165.81</v>
+        <v>166.18</v>
       </c>
     </row>
     <row r="10">
@@ -704,13 +704,13 @@
         <v>33.5</v>
       </c>
       <c r="E10" t="n">
-        <v>7286.15</v>
+        <v>7351.46</v>
       </c>
       <c r="F10" t="n">
-        <v>48.82</v>
+        <v>49.25</v>
       </c>
       <c r="G10" t="n">
-        <v>192.92</v>
+        <v>208.88</v>
       </c>
     </row>
     <row r="11">
@@ -725,19 +725,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="D11" t="n">
-        <v>46.9</v>
+        <v>20.1</v>
       </c>
       <c r="E11" t="n">
-        <v>9889.940000000001</v>
+        <v>6426.16</v>
       </c>
       <c r="F11" t="n">
-        <v>66.26000000000001</v>
+        <v>43.06</v>
       </c>
       <c r="G11" t="n">
-        <v>130.23</v>
+        <v>126.04</v>
       </c>
     </row>
     <row r="12">
@@ -758,13 +758,13 @@
         <v>108</v>
       </c>
       <c r="E12" t="n">
-        <v>788.61</v>
+        <v>873.38</v>
       </c>
       <c r="F12" t="n">
-        <v>212.92</v>
+        <v>235.81</v>
       </c>
       <c r="G12" t="n">
-        <v>75.77</v>
+        <v>84.84</v>
       </c>
     </row>
     <row r="13">
@@ -785,13 +785,13 @@
         <v>135</v>
       </c>
       <c r="E13" t="n">
-        <v>805.03</v>
+        <v>722.51</v>
       </c>
       <c r="F13" t="n">
-        <v>217.36</v>
+        <v>195.08</v>
       </c>
       <c r="G13" t="n">
-        <v>239.37</v>
+        <v>216.1</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>35.4</v>
       </c>
       <c r="E14" t="n">
-        <v>79.11</v>
+        <v>79.14</v>
       </c>
       <c r="F14" t="n">
-        <v>46.67</v>
+        <v>46.69</v>
       </c>
       <c r="G14" t="n">
-        <v>131.89</v>
+        <v>131.97</v>
       </c>
     </row>
     <row r="15">
@@ -839,13 +839,13 @@
         <v>37.76</v>
       </c>
       <c r="E15" t="n">
-        <v>222.06</v>
+        <v>222.28</v>
       </c>
       <c r="F15" t="n">
-        <v>131.01</v>
+        <v>131.14</v>
       </c>
       <c r="G15" t="n">
-        <v>186.99</v>
+        <v>187.07</v>
       </c>
     </row>
     <row r="16">
@@ -920,13 +920,13 @@
         <v>49.35</v>
       </c>
       <c r="E18" t="n">
-        <v>54.13</v>
+        <v>54.12</v>
       </c>
       <c r="F18" t="n">
-        <v>56.84</v>
+        <v>56.83</v>
       </c>
       <c r="G18" t="n">
-        <v>201.26</v>
+        <v>201.21</v>
       </c>
     </row>
     <row r="19">
@@ -947,13 +947,13 @@
         <v>47.25</v>
       </c>
       <c r="E19" t="n">
-        <v>59.08</v>
+        <v>59.05</v>
       </c>
       <c r="F19" t="n">
-        <v>62.03</v>
+        <v>62</v>
       </c>
       <c r="G19" t="n">
-        <v>109.15</v>
+        <v>109.17</v>
       </c>
     </row>
     <row r="20">
@@ -974,13 +974,13 @@
         <v>50</v>
       </c>
       <c r="E20" t="n">
-        <v>148.44</v>
+        <v>148.47</v>
       </c>
       <c r="F20" t="n">
-        <v>148.44</v>
+        <v>148.47</v>
       </c>
       <c r="G20" t="n">
-        <v>112.04</v>
+        <v>112.11</v>
       </c>
     </row>
     <row r="21">
@@ -1001,13 +1001,13 @@
         <v>70</v>
       </c>
       <c r="E21" t="n">
-        <v>106.36</v>
+        <v>106.34</v>
       </c>
       <c r="F21" t="n">
-        <v>106.36</v>
+        <v>106.34</v>
       </c>
       <c r="G21" t="n">
-        <v>136.17</v>
+        <v>136.19</v>
       </c>
     </row>
   </sheetData>
